--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/15/seed5/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.92129999999999</v>
+        <v>12.56379999999999</v>
       </c>
     </row>
     <row r="4">
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.65109999999999</v>
+        <v>13.44329999999999</v>
       </c>
     </row>
     <row r="9">
@@ -641,10 +641,10 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.393299999999998</v>
+        <v>-8.304799999999998</v>
       </c>
       <c r="E12" t="n">
-        <v>12.4822</v>
+        <v>12.819</v>
       </c>
     </row>
     <row r="13">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.96220000000001</v>
+        <v>13.84630000000001</v>
       </c>
     </row>
     <row r="15">
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>11.6744</v>
+        <v>11.4574</v>
       </c>
     </row>
     <row r="23">
